--- a/ONC.xlsx
+++ b/ONC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMED\eHealth_uz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iroy\OneDrive - Gevity Group\Uzbekistan\Archi\git\eHealth_uz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB249E2-E194-42AB-AD96-BAE7926D0E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7EB249E2-E194-42AB-AD96-BAE7926D0E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E0B04C7-77A0-4631-BB65-37AFC8D16276}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="-1764" windowWidth="14544" windowHeight="15708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25245" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Member Mobile / Web UI</t>
   </si>
   <si>
-    <t>HER Workflow Integration</t>
-  </si>
-  <si>
     <t>SaaS</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Parametr</t>
+  </si>
+  <si>
+    <t>EHR Workflow Integration</t>
   </si>
 </sst>
 </file>
@@ -468,31 +468,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -502,7 +502,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -622,7 +622,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -802,32 +802,32 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
